--- a/Documentation/小商品自动售货机成本分析数据.xlsx
+++ b/Documentation/小商品自动售货机成本分析数据.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\wsh\logisim_vending_machine\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC95582-FE18-4B2B-B80B-CFA37D7043A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256C97C7-0762-4BFA-B425-39368D5FA903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,35 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
-  <si>
-    <t>总计 (包含子电路)</t>
-  </si>
-  <si>
-    <t>基础库(Base)</t>
-  </si>
-  <si>
-    <t>标签(Label)</t>
-  </si>
-  <si>
-    <t>输入/输出(Input/Output)</t>
-  </si>
-  <si>
-    <t>LED点阵(LED Matrix)</t>
-  </si>
-  <si>
-    <t>16进制数字显示(Hex Digit Display)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>按钮(Button)</t>
   </si>
   <si>
-    <t>存储库(Memory)</t>
-  </si>
-  <si>
-    <t>只读存储器(ROM)</t>
-  </si>
-  <si>
     <t>随机存储器(RAM)</t>
   </si>
   <si>
@@ -72,9 +49,6 @@
     <t>寄存器(Register)</t>
   </si>
   <si>
-    <t>运算器(Arithmetic)</t>
-  </si>
-  <si>
     <t>比较器(Comparator)</t>
   </si>
   <si>
@@ -90,9 +64,6 @@
     <t>加法器(Adder)</t>
   </si>
   <si>
-    <t>复用器(Plexers)</t>
-  </si>
-  <si>
     <t>译码器(Decoder)</t>
   </si>
   <si>
@@ -102,9 +73,6 @@
     <t>多路选择器(Multiplexer)</t>
   </si>
   <si>
-    <t>逻辑门(Gates)</t>
-  </si>
-  <si>
     <t>或非门(NOR Gate)</t>
   </si>
   <si>
@@ -117,16 +85,7 @@
     <t>非门(NOT Gate)</t>
   </si>
   <si>
-    <t>线路(Wiring)</t>
-  </si>
-  <si>
     <t>位扩展器</t>
-  </si>
-  <si>
-    <t>常量(Constant)</t>
-  </si>
-  <si>
-    <t>时钟(Clock)</t>
   </si>
   <si>
     <t>隧道(Tunnel)</t>
@@ -142,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,6 +110,36 @@
   </si>
   <si>
     <t>总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨码开关(Dip Switch)</t>
+  </si>
+  <si>
+    <t>蜂鸣器(Buzzer)</t>
+  </si>
+  <si>
+    <t>发光二极管(LED)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED点阵（5*7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED点阵（32*32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读存储器(ROM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16进制数字显示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +172,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -230,13 +223,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,389 +533,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>243</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="8">
+        <f>B3*C3</f>
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>171</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D14" si="0">B4*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>11.700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>64</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="8">
+        <f>B15*C15</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="8">
+        <f>B16*C16</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <f>B17*C17</f>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="8">
+        <f>B18*C18</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="8">
+        <f>B19*C19</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <f>B20*C20</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <f>B21*C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <f>B22*C22</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D23" s="8">
+        <f>B23*C23</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D24" s="8">
+        <f>B24*C24</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="8">
+        <f>B25*C25</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <f>B26*C26</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>313</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B27" s="6">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D27" s="8">
+        <f>B27*C27</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8">
+        <f>B28*C28</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>123</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>30</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>1068</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10">
+        <f>SUM(D2:D28)</f>
+        <v>291.96000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -910,9 +985,23 @@
     <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E620CC-8174-4D07-8811-7323595F9883}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
